--- a/structure.xlsx
+++ b/structure.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onedometic-my.sharepoint.com/personal/martin_petersson_dometic_com/Documents/Skrivbordet/HOME1/Make60Flow_2025/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onedometic-my.sharepoint.com/personal/martin_petersson_dometic_com/Documents/Skrivbordet/Frekvensanalys/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="376" documentId="8_{B2910366-A7E1-44AF-843D-D301CAC21153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5650AA68-E4CF-48EE-B643-F5E09FDBCD3F}"/>
+  <xr:revisionPtr revIDLastSave="380" documentId="8_{B2910366-A7E1-44AF-843D-D301CAC21153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34D70F05-9875-4437-868C-F44A9D905A6A}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="24" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="109">
   <si>
     <t>Kategori</t>
   </si>
@@ -344,6 +344,9 @@
   </si>
   <si>
     <t>Material till LB</t>
+  </si>
+  <si>
+    <t>Frakta verktyg mellan fabrik</t>
   </si>
 </sst>
 </file>
@@ -616,41 +619,46 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="10">
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -704,13 +712,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -726,74 +727,46 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -809,12 +782,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF48DA23-3E59-4607-B2B4-8A642AED3858}" name="Table1" displayName="Table1" ref="A1:C89" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="4" tableBorderDxfId="5">
-  <autoFilter ref="A1:C89" xr:uid="{BF48DA23-3E59-4607-B2B4-8A642AED3858}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF48DA23-3E59-4607-B2B4-8A642AED3858}" name="Table1" displayName="Table1" ref="A1:C90" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="A1:C90" xr:uid="{BF48DA23-3E59-4607-B2B4-8A642AED3858}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A3768F14-CCAD-44BA-BF45-88778F5F665B}" name="Kategori" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{C4189BEF-9E3C-4B91-9321-6CBA1D620671}" name="Underkategori" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{C38FDF50-418D-4F91-90C1-3080CDE10CB7}" name="Aktivitet" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{A3768F14-CCAD-44BA-BF45-88778F5F665B}" name="Kategori" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{C4189BEF-9E3C-4B91-9321-6CBA1D620671}" name="Underkategori" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{C38FDF50-418D-4F91-90C1-3080CDE10CB7}" name="Aktivitet" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1110,16 +1083,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="29.6640625" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="19.44140625" customWidth="1"/>
@@ -2108,18 +2081,29 @@
         <v>83</v>
       </c>
     </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" s="37" t="s">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C18 C3 C5">
-    <cfRule type="duplicateValues" dxfId="9" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="111"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19:C89 C97:C1048576 C6:C17 C2">
-    <cfRule type="duplicateValues" dxfId="8" priority="238"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+  <conditionalFormatting sqref="C97:C1048576 C6:C17 C2 C19:C90">
+    <cfRule type="duplicateValues" dxfId="1" priority="238"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C96:C1048576 C1:C3 C5:C17 C19:C57">
-    <cfRule type="duplicateValues" dxfId="6" priority="239"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="239"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="60" orientation="portrait" verticalDpi="0" r:id="rId1"/>
